--- a/Letopis_2024/R_calc_for_Letopis_2024/data/hydrology_2024_All.xlsx
+++ b/Letopis_2024/R_calc_for_Letopis_2024/data/hydrology_2024_All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Text\Article\Articles_in_progress\Letopis_2024\R_calc_for_Letopis_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55170CA-EF50-4CE1-8E7F-4566E687B4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030571C-B6F3-4F7A-9458-09C6A4732F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{8544440E-CAA4-4FA2-8899-8139774ECE5F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="30">
   <si>
     <t>ЮВ</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">2-3 (морось) </t>
-  </si>
-  <si>
-    <t>15,7</t>
   </si>
   <si>
     <t>СВВ</t>
@@ -506,7 +503,7 @@
   <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -519,22 +516,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -551,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -571,7 +568,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>0.5</v>
@@ -591,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>0.5</v>
@@ -611,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -631,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>0.5</v>
@@ -651,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>0.5</v>
@@ -665,13 +662,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -691,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -711,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -731,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -742,19 +739,19 @@
         <v>45447.5</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +759,19 @@
         <v>45447.75</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +779,19 @@
         <v>45448</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +799,19 @@
         <v>45448.5</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +819,19 @@
         <v>45448.75</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +839,19 @@
         <v>45449</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +859,19 @@
         <v>45449.5</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +879,19 @@
         <v>45449.75</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +899,19 @@
         <v>45450</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +919,19 @@
         <v>45450.5</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +939,19 @@
         <v>45450.75</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +959,19 @@
         <v>45451</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +979,19 @@
         <v>45451.5</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +999,19 @@
         <v>45451.75</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1019,19 @@
         <v>45452</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1039,19 @@
         <v>45452.5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1059,19 @@
         <v>45452.75</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1079,19 @@
         <v>45453</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1099,19 @@
         <v>45453.5</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1119,19 @@
         <v>45453.75</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1528,7 +1525,7 @@
         <v>12.8</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>1</v>
@@ -1548,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -1568,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>1</v>
@@ -1588,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
@@ -1608,7 +1605,7 @@
         <v>14.4</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>0</v>
@@ -1628,7 +1625,7 @@
         <v>13.2</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>14.6</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>0</v>
@@ -1668,7 +1665,7 @@
         <v>16.2</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>0</v>
@@ -1688,7 +1685,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>1</v>
@@ -1708,7 +1705,7 @@
         <v>14.4</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>3</v>
@@ -1728,7 +1725,7 @@
         <v>15.1</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>0</v>
@@ -1748,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>0</v>
@@ -1768,7 +1765,7 @@
         <v>14.2</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>4</v>
@@ -1788,7 +1785,7 @@
         <v>14.1</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>5</v>
@@ -1808,7 +1805,7 @@
         <v>14.2</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>2</v>
@@ -1828,7 +1825,7 @@
         <v>14.8</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>3</v>
@@ -1848,7 +1845,7 @@
         <v>14.6</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -1868,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>4</v>
@@ -1888,7 +1885,7 @@
         <v>15.6</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>1</v>
@@ -1908,7 +1905,7 @@
         <v>14.8</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
@@ -1928,7 +1925,7 @@
         <v>14.2</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
@@ -1948,7 +1945,7 @@
         <v>14.2</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
@@ -1968,7 +1965,7 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -1988,7 +1985,7 @@
         <v>13.8</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -2008,7 +2005,7 @@
         <v>11.2</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>6</v>
@@ -2028,7 +2025,7 @@
         <v>10.4</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>6</v>
@@ -2048,7 +2045,7 @@
         <v>10.8</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -2068,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>5</v>
@@ -2088,7 +2085,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>5</v>
@@ -2108,7 +2105,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>5</v>
@@ -2128,7 +2125,7 @@
         <v>10.6</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>5</v>
@@ -2148,7 +2145,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
@@ -2168,7 +2165,7 @@
         <v>10.6</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>0</v>
@@ -2188,7 +2185,7 @@
         <v>9.4</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>3</v>
@@ -2208,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>0</v>
@@ -2228,7 +2225,7 @@
         <v>12.6</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>3</v>
@@ -2248,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>1</v>
@@ -2268,7 +2265,7 @@
         <v>10.1</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
@@ -2288,7 +2285,7 @@
         <v>11.6</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
@@ -2308,7 +2305,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -2328,7 +2325,7 @@
         <v>11.2</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -2348,13 +2345,13 @@
         <v>13.7</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2368,7 +2365,7 @@
         <v>11.2</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
@@ -2388,7 +2385,7 @@
         <v>13.8</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>6</v>
@@ -2408,7 +2405,7 @@
         <v>11.9</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>1</v>
@@ -2422,19 +2419,19 @@
         <v>45470.75</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2439,19 @@
         <v>45471</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97">
         <v>19</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2459,19 @@
         <v>45471.5</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98">
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2479,19 @@
         <v>45471.75</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99">
         <v>17</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2499,19 @@
         <v>45472</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100">
         <v>17</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2519,19 @@
         <v>45472.5</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101">
         <v>16</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2539,19 @@
         <v>45472.75</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102">
         <v>17</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2559,19 @@
         <v>45473</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103">
         <v>16</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2579,19 @@
         <v>45473.5</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104">
         <v>19</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2599,19 @@
         <v>45473.75</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105">
         <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2619,19 @@
         <v>45474</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106">
         <v>17</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2639,19 @@
         <v>45474.5</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107">
         <v>15</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2659,19 @@
         <v>45474.75</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108">
         <v>15</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2679,19 @@
         <v>45475</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109">
         <v>15</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2699,19 @@
         <v>45475.5</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110">
         <v>16</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2719,19 @@
         <v>45475.75</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111">
         <v>16</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2739,19 @@
         <v>45476</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112">
         <v>16</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2759,19 @@
         <v>45476.5</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113">
         <v>16</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2779,19 @@
         <v>45476.75</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114">
         <v>17</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2799,19 @@
         <v>45477</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115">
         <v>17</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2819,19 @@
         <v>45477.5</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116">
         <v>16</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2839,19 @@
         <v>45477.75</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117">
         <v>15</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2859,19 @@
         <v>45478</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118">
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2879,19 @@
         <v>45478.5</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119">
         <v>15</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2899,19 @@
         <v>45478.75</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120">
         <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2919,19 @@
         <v>45479</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121">
         <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,7 +2939,7 @@
         <v>45479.25</v>
       </c>
       <c r="B122">
-        <v>1.1000000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C122">
         <v>15.2</v>
@@ -3305,7 +3302,7 @@
         <v>15.2</v>
       </c>
       <c r="C140">
-        <v>1.2</v>
+        <v>15.2</v>
       </c>
       <c r="D140">
         <v>16</v>
@@ -3408,7 +3405,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>5</v>
@@ -3631,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F156" s="2">
         <v>1.5</v>
@@ -4094,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4751,7 +4748,7 @@
         <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F212" s="2">
         <v>0</v>
@@ -4782,19 +4779,19 @@
         <v>45502.5</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D214">
         <v>17</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4802,19 +4799,19 @@
         <v>45502.75</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D215">
         <v>17</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4825,16 +4822,16 @@
         <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D216">
         <v>20</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4845,7 +4842,7 @@
         <v>17.7</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D217">
         <v>22</v>
@@ -4865,7 +4862,7 @@
         <v>18.8</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D218">
         <v>17</v>
@@ -4882,10 +4879,10 @@
         <v>45504</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D219">
         <v>19</v>
@@ -4905,7 +4902,7 @@
         <v>13.2</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D220">
         <v>19</v>
@@ -4925,7 +4922,7 @@
         <v>15.8</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D221">
         <v>20</v>
@@ -4941,14 +4938,14 @@
       <c r="A222" s="7">
         <v>45505</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>22</v>
+      <c r="B222" s="3">
+        <v>15.7</v>
       </c>
       <c r="C222">
         <v>17</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>4</v>
@@ -4965,7 +4962,7 @@
         <v>13.9</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D223">
         <v>20</v>
@@ -4974,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4985,7 +4982,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D224">
         <v>19</v>
@@ -4994,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5011,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -5091,7 +5088,7 @@
         <v>20</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F229" s="2">
         <v>1</v>
@@ -5574,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5602,16 +5599,16 @@
         <v>45513.5</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D255">
         <v>18</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F255" s="2">
         <v>1</v>
@@ -5648,7 +5645,7 @@
         <v>17.8</v>
       </c>
       <c r="D257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>2</v>
@@ -5671,7 +5668,7 @@
         <v>17</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F258" s="2">
         <v>2</v>
@@ -5691,7 +5688,7 @@
         <v>17</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F259" s="2">
         <v>4</v>
@@ -6191,7 +6188,7 @@
         <v>15</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F284" s="2">
         <v>2</v>
@@ -6214,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6348,7 +6345,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="D292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>3</v>
@@ -6368,7 +6365,7 @@
         <v>16.8</v>
       </c>
       <c r="D293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>3</v>
@@ -6388,7 +6385,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="D294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>2</v>
